--- a/ProjectFiles/HECO/PyDSS Settings/HP-VV/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/HECO/PyDSS Settings/HP-VV/pyControllerList/PV Controller.xlsx
@@ -2838,7 +2838,7 @@
   <dimension ref="A1:X533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+      <selection activeCell="E544" sqref="E544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10664,10 +10664,10 @@
         <v>139</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D116" s="4">
         <v>0.95</v>

--- a/ProjectFiles/HECO/PyDSS Settings/HP-VV/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/HECO/PyDSS Settings/HP-VV/pyControllerList/PV Controller.xlsx
@@ -2865,7 +2865,7 @@
   <dimension ref="A1:Y533"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:W533"/>
+      <selection activeCell="N3" sqref="N3:N533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3049,7 @@
         <v>0.8</v>
       </c>
       <c r="N3" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O3" s="4" t="b">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0.8</v>
       </c>
       <c r="N4" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O4" s="4" t="b">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>0.8</v>
       </c>
       <c r="N5" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O5" s="4" t="b">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0.8</v>
       </c>
       <c r="N6" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O6" s="4" t="b">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>0.8</v>
       </c>
       <c r="N7" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O7" s="4" t="b">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0.8</v>
       </c>
       <c r="N8" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O8" s="4" t="b">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0.8</v>
       </c>
       <c r="N9" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O9" s="4" t="b">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0.8</v>
       </c>
       <c r="N10" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O10" s="4" t="b">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>0.8</v>
       </c>
       <c r="N11" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O11" s="4" t="b">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0.8</v>
       </c>
       <c r="N12" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O12" s="4" t="b">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>0.8</v>
       </c>
       <c r="N13" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O13" s="4" t="b">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0.8</v>
       </c>
       <c r="N14" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O14" s="4" t="b">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>0.8</v>
       </c>
       <c r="N15" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O15" s="4" t="b">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         <v>0.8</v>
       </c>
       <c r="N16" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O16" s="4" t="b">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>0.8</v>
       </c>
       <c r="N17" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O17" s="4" t="b">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0.8</v>
       </c>
       <c r="N18" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O18" s="4" t="b">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>0.8</v>
       </c>
       <c r="N19" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O19" s="4" t="b">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>0.8</v>
       </c>
       <c r="N20" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O20" s="4" t="b">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0.8</v>
       </c>
       <c r="N21" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O21" s="4" t="b">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>0.8</v>
       </c>
       <c r="N22" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O22" s="4" t="b">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0.8</v>
       </c>
       <c r="N23" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O23" s="4" t="b">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0.8</v>
       </c>
       <c r="N24" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O24" s="4" t="b">
         <v>0</v>
@@ -4743,7 +4743,7 @@
         <v>0.8</v>
       </c>
       <c r="N25" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O25" s="4" t="b">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>0.8</v>
       </c>
       <c r="N26" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O26" s="4" t="b">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0.8</v>
       </c>
       <c r="N27" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O27" s="4" t="b">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0.8</v>
       </c>
       <c r="N28" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O28" s="4" t="b">
         <v>0</v>
@@ -5051,7 +5051,7 @@
         <v>0.8</v>
       </c>
       <c r="N29" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O29" s="4" t="b">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         <v>0.8</v>
       </c>
       <c r="N30" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O30" s="4" t="b">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>0.8</v>
       </c>
       <c r="N31" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O31" s="4" t="b">
         <v>0</v>
@@ -5282,7 +5282,7 @@
         <v>0.8</v>
       </c>
       <c r="N32" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O32" s="4" t="b">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0.8</v>
       </c>
       <c r="N33" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O33" s="4" t="b">
         <v>0</v>
@@ -5436,7 +5436,7 @@
         <v>0.8</v>
       </c>
       <c r="N34" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O34" s="4" t="b">
         <v>0</v>
@@ -5513,7 +5513,7 @@
         <v>0.8</v>
       </c>
       <c r="N35" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O35" s="4" t="b">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>0.8</v>
       </c>
       <c r="N36" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O36" s="4" t="b">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>0.8</v>
       </c>
       <c r="N37" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O37" s="4" t="b">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0.8</v>
       </c>
       <c r="N38" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O38" s="4" t="b">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>0.8</v>
       </c>
       <c r="N39" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O39" s="4" t="b">
         <v>0</v>
@@ -5898,7 +5898,7 @@
         <v>0.8</v>
       </c>
       <c r="N40" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O40" s="4" t="b">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0.8</v>
       </c>
       <c r="N41" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O41" s="4" t="b">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0.8</v>
       </c>
       <c r="N42" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O42" s="4" t="b">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0.8</v>
       </c>
       <c r="N43" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O43" s="4" t="b">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>0.8</v>
       </c>
       <c r="N44" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O44" s="4" t="b">
         <v>0</v>
@@ -6283,7 +6283,7 @@
         <v>0.8</v>
       </c>
       <c r="N45" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O45" s="4" t="b">
         <v>0</v>
@@ -6360,7 +6360,7 @@
         <v>0.8</v>
       </c>
       <c r="N46" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O46" s="4" t="b">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>0.8</v>
       </c>
       <c r="N47" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O47" s="4" t="b">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>0.8</v>
       </c>
       <c r="N48" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O48" s="4" t="b">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>0.8</v>
       </c>
       <c r="N49" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O49" s="4" t="b">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>0.8</v>
       </c>
       <c r="N50" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O50" s="4" t="b">
         <v>0</v>
@@ -6745,7 +6745,7 @@
         <v>0.8</v>
       </c>
       <c r="N51" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O51" s="4" t="b">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0.8</v>
       </c>
       <c r="N52" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O52" s="4" t="b">
         <v>0</v>
@@ -6899,7 +6899,7 @@
         <v>0.8</v>
       </c>
       <c r="N53" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O53" s="4" t="b">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>0.8</v>
       </c>
       <c r="N54" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O54" s="4" t="b">
         <v>0</v>
@@ -7053,7 +7053,7 @@
         <v>0.8</v>
       </c>
       <c r="N55" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O55" s="4" t="b">
         <v>0</v>
@@ -7130,7 +7130,7 @@
         <v>0.8</v>
       </c>
       <c r="N56" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O56" s="4" t="b">
         <v>0</v>
@@ -7207,7 +7207,7 @@
         <v>0.8</v>
       </c>
       <c r="N57" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O57" s="4" t="b">
         <v>0</v>
@@ -7284,7 +7284,7 @@
         <v>0.8</v>
       </c>
       <c r="N58" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O58" s="4" t="b">
         <v>0</v>
@@ -7361,7 +7361,7 @@
         <v>0.8</v>
       </c>
       <c r="N59" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O59" s="4" t="b">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0.8</v>
       </c>
       <c r="N60" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O60" s="4" t="b">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0.8</v>
       </c>
       <c r="N61" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O61" s="4" t="b">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>0.8</v>
       </c>
       <c r="N62" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O62" s="4" t="b">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>0.8</v>
       </c>
       <c r="N63" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O63" s="4" t="b">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>0.8</v>
       </c>
       <c r="N64" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O64" s="4" t="b">
         <v>0</v>
@@ -7823,7 +7823,7 @@
         <v>0.8</v>
       </c>
       <c r="N65" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O65" s="4" t="b">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0.8</v>
       </c>
       <c r="N66" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O66" s="4" t="b">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>0.8</v>
       </c>
       <c r="N67" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O67" s="4" t="b">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0.8</v>
       </c>
       <c r="N68" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O68" s="4" t="b">
         <v>0</v>
@@ -8131,7 +8131,7 @@
         <v>0.8</v>
       </c>
       <c r="N69" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O69" s="4" t="b">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0.8</v>
       </c>
       <c r="N70" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O70" s="4" t="b">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0.8</v>
       </c>
       <c r="N71" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O71" s="4" t="b">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         <v>0.8</v>
       </c>
       <c r="N72" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O72" s="4" t="b">
         <v>0</v>
@@ -8439,7 +8439,7 @@
         <v>0.8</v>
       </c>
       <c r="N73" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O73" s="4" t="b">
         <v>0</v>
@@ -8516,7 +8516,7 @@
         <v>0.8</v>
       </c>
       <c r="N74" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O74" s="4" t="b">
         <v>0</v>
@@ -8593,7 +8593,7 @@
         <v>0.8</v>
       </c>
       <c r="N75" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O75" s="4" t="b">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0.8</v>
       </c>
       <c r="N76" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O76" s="4" t="b">
         <v>0</v>
@@ -8747,7 +8747,7 @@
         <v>0.8</v>
       </c>
       <c r="N77" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O77" s="4" t="b">
         <v>0</v>
@@ -8824,7 +8824,7 @@
         <v>0.8</v>
       </c>
       <c r="N78" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O78" s="4" t="b">
         <v>0</v>
@@ -8901,7 +8901,7 @@
         <v>0.8</v>
       </c>
       <c r="N79" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O79" s="4" t="b">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0.8</v>
       </c>
       <c r="N80" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O80" s="4" t="b">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0.8</v>
       </c>
       <c r="N81" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O81" s="4" t="b">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0.8</v>
       </c>
       <c r="N82" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O82" s="4" t="b">
         <v>0</v>
@@ -9209,7 +9209,7 @@
         <v>0.8</v>
       </c>
       <c r="N83" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O83" s="4" t="b">
         <v>0</v>
@@ -9286,7 +9286,7 @@
         <v>0.8</v>
       </c>
       <c r="N84" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O84" s="4" t="b">
         <v>0</v>
@@ -9363,7 +9363,7 @@
         <v>0.8</v>
       </c>
       <c r="N85" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O85" s="4" t="b">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0.8</v>
       </c>
       <c r="N86" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O86" s="4" t="b">
         <v>0</v>
@@ -9517,7 +9517,7 @@
         <v>0.8</v>
       </c>
       <c r="N87" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O87" s="4" t="b">
         <v>0</v>
@@ -9594,7 +9594,7 @@
         <v>0.8</v>
       </c>
       <c r="N88" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O88" s="4" t="b">
         <v>0</v>
@@ -9671,7 +9671,7 @@
         <v>0.8</v>
       </c>
       <c r="N89" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O89" s="4" t="b">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.8</v>
       </c>
       <c r="N90" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O90" s="4" t="b">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0.8</v>
       </c>
       <c r="N91" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O91" s="4" t="b">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>0.8</v>
       </c>
       <c r="N92" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O92" s="4" t="b">
         <v>0</v>
@@ -9979,7 +9979,7 @@
         <v>0.8</v>
       </c>
       <c r="N93" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O93" s="4" t="b">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>0.8</v>
       </c>
       <c r="N94" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O94" s="4" t="b">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0.8</v>
       </c>
       <c r="N95" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O95" s="4" t="b">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0.8</v>
       </c>
       <c r="N96" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O96" s="4" t="b">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>0.8</v>
       </c>
       <c r="N97" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O97" s="4" t="b">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0.8</v>
       </c>
       <c r="N98" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O98" s="4" t="b">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>0.8</v>
       </c>
       <c r="N99" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O99" s="4" t="b">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>0.8</v>
       </c>
       <c r="N100" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O100" s="4" t="b">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0.8</v>
       </c>
       <c r="N101" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O101" s="4" t="b">
         <v>0</v>
@@ -10672,7 +10672,7 @@
         <v>0.8</v>
       </c>
       <c r="N102" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O102" s="4" t="b">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0.8</v>
       </c>
       <c r="N103" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O103" s="4" t="b">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0.8</v>
       </c>
       <c r="N104" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O104" s="4" t="b">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0.8</v>
       </c>
       <c r="N105" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O105" s="4" t="b">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0.8</v>
       </c>
       <c r="N106" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O106" s="4" t="b">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0.8</v>
       </c>
       <c r="N107" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O107" s="4" t="b">
         <v>0</v>
@@ -11134,7 +11134,7 @@
         <v>0.8</v>
       </c>
       <c r="N108" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O108" s="4" t="b">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0.8</v>
       </c>
       <c r="N109" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O109" s="4" t="b">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>0.8</v>
       </c>
       <c r="N110" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O110" s="4" t="b">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>0.8</v>
       </c>
       <c r="N111" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O111" s="4" t="b">
         <v>0</v>
@@ -11442,7 +11442,7 @@
         <v>0.8</v>
       </c>
       <c r="N112" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O112" s="4" t="b">
         <v>0</v>
@@ -11519,7 +11519,7 @@
         <v>0.8</v>
       </c>
       <c r="N113" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O113" s="4" t="b">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         <v>0.8</v>
       </c>
       <c r="N114" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O114" s="4" t="b">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0.8</v>
       </c>
       <c r="N115" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O115" s="4" t="b">
         <v>0</v>
@@ -11750,7 +11750,7 @@
         <v>0.8</v>
       </c>
       <c r="N116" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O116" s="4" t="b">
         <v>0</v>
@@ -11827,7 +11827,7 @@
         <v>0.8</v>
       </c>
       <c r="N117" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O117" s="4" t="b">
         <v>0</v>
@@ -11904,7 +11904,7 @@
         <v>0.8</v>
       </c>
       <c r="N118" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O118" s="4" t="b">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0.8</v>
       </c>
       <c r="N119" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O119" s="4" t="b">
         <v>0</v>
@@ -12058,7 +12058,7 @@
         <v>0.8</v>
       </c>
       <c r="N120" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O120" s="4" t="b">
         <v>0</v>
@@ -12135,7 +12135,7 @@
         <v>0.8</v>
       </c>
       <c r="N121" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O121" s="4" t="b">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0.8</v>
       </c>
       <c r="N122" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O122" s="4" t="b">
         <v>0</v>
@@ -12289,7 +12289,7 @@
         <v>0.8</v>
       </c>
       <c r="N123" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O123" s="4" t="b">
         <v>0</v>
@@ -12366,7 +12366,7 @@
         <v>0.8</v>
       </c>
       <c r="N124" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O124" s="4" t="b">
         <v>0</v>
@@ -12443,7 +12443,7 @@
         <v>0.8</v>
       </c>
       <c r="N125" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O125" s="4" t="b">
         <v>0</v>
@@ -12520,7 +12520,7 @@
         <v>0.8</v>
       </c>
       <c r="N126" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O126" s="4" t="b">
         <v>0</v>
@@ -12597,7 +12597,7 @@
         <v>0.8</v>
       </c>
       <c r="N127" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O127" s="4" t="b">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0.8</v>
       </c>
       <c r="N128" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O128" s="4" t="b">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0.8</v>
       </c>
       <c r="N129" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O129" s="4" t="b">
         <v>0</v>
@@ -12828,7 +12828,7 @@
         <v>0.8</v>
       </c>
       <c r="N130" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O130" s="4" t="b">
         <v>0</v>
@@ -12905,7 +12905,7 @@
         <v>0.8</v>
       </c>
       <c r="N131" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O131" s="4" t="b">
         <v>0</v>
@@ -12982,7 +12982,7 @@
         <v>0.8</v>
       </c>
       <c r="N132" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O132" s="4" t="b">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0.8</v>
       </c>
       <c r="N133" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O133" s="4" t="b">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0.8</v>
       </c>
       <c r="N134" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O134" s="4" t="b">
         <v>0</v>
@@ -13213,7 +13213,7 @@
         <v>0.8</v>
       </c>
       <c r="N135" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O135" s="4" t="b">
         <v>0</v>
@@ -13290,7 +13290,7 @@
         <v>0.8</v>
       </c>
       <c r="N136" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O136" s="4" t="b">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0.8</v>
       </c>
       <c r="N137" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O137" s="4" t="b">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>0.8</v>
       </c>
       <c r="N138" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O138" s="4" t="b">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0.8</v>
       </c>
       <c r="N139" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O139" s="4" t="b">
         <v>0</v>
@@ -13598,7 +13598,7 @@
         <v>0.8</v>
       </c>
       <c r="N140" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O140" s="4" t="b">
         <v>0</v>
@@ -13675,7 +13675,7 @@
         <v>0.8</v>
       </c>
       <c r="N141" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O141" s="4" t="b">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>0.8</v>
       </c>
       <c r="N142" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O142" s="4" t="b">
         <v>0</v>
@@ -13829,7 +13829,7 @@
         <v>0.8</v>
       </c>
       <c r="N143" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O143" s="4" t="b">
         <v>0</v>
@@ -13906,7 +13906,7 @@
         <v>0.8</v>
       </c>
       <c r="N144" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O144" s="4" t="b">
         <v>0</v>
@@ -13983,7 +13983,7 @@
         <v>0.8</v>
       </c>
       <c r="N145" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O145" s="4" t="b">
         <v>0</v>
@@ -14060,7 +14060,7 @@
         <v>0.8</v>
       </c>
       <c r="N146" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O146" s="4" t="b">
         <v>0</v>
@@ -14137,7 +14137,7 @@
         <v>0.8</v>
       </c>
       <c r="N147" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O147" s="4" t="b">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>0.8</v>
       </c>
       <c r="N148" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O148" s="4" t="b">
         <v>0</v>
@@ -14291,7 +14291,7 @@
         <v>0.8</v>
       </c>
       <c r="N149" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O149" s="4" t="b">
         <v>0</v>
@@ -14368,7 +14368,7 @@
         <v>0.8</v>
       </c>
       <c r="N150" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O150" s="4" t="b">
         <v>0</v>
@@ -14445,7 +14445,7 @@
         <v>0.8</v>
       </c>
       <c r="N151" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O151" s="4" t="b">
         <v>0</v>
@@ -14522,7 +14522,7 @@
         <v>0.8</v>
       </c>
       <c r="N152" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O152" s="4" t="b">
         <v>0</v>
@@ -14599,7 +14599,7 @@
         <v>0.8</v>
       </c>
       <c r="N153" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O153" s="4" t="b">
         <v>0</v>
@@ -14676,7 +14676,7 @@
         <v>0.8</v>
       </c>
       <c r="N154" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O154" s="4" t="b">
         <v>0</v>
@@ -14753,7 +14753,7 @@
         <v>0.8</v>
       </c>
       <c r="N155" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O155" s="4" t="b">
         <v>0</v>
@@ -14830,7 +14830,7 @@
         <v>0.8</v>
       </c>
       <c r="N156" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O156" s="4" t="b">
         <v>0</v>
@@ -14907,7 +14907,7 @@
         <v>0.8</v>
       </c>
       <c r="N157" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O157" s="4" t="b">
         <v>0</v>
@@ -14984,7 +14984,7 @@
         <v>0.8</v>
       </c>
       <c r="N158" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O158" s="4" t="b">
         <v>0</v>
@@ -15061,7 +15061,7 @@
         <v>0.8</v>
       </c>
       <c r="N159" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O159" s="4" t="b">
         <v>0</v>
@@ -15138,7 +15138,7 @@
         <v>0.8</v>
       </c>
       <c r="N160" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O160" s="4" t="b">
         <v>0</v>
@@ -15215,7 +15215,7 @@
         <v>0.8</v>
       </c>
       <c r="N161" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O161" s="4" t="b">
         <v>0</v>
@@ -15292,7 +15292,7 @@
         <v>0.8</v>
       </c>
       <c r="N162" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O162" s="4" t="b">
         <v>0</v>
@@ -15369,7 +15369,7 @@
         <v>0.8</v>
       </c>
       <c r="N163" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O163" s="4" t="b">
         <v>0</v>
@@ -15446,7 +15446,7 @@
         <v>0.8</v>
       </c>
       <c r="N164" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O164" s="4" t="b">
         <v>0</v>
@@ -15523,7 +15523,7 @@
         <v>0.8</v>
       </c>
       <c r="N165" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O165" s="4" t="b">
         <v>0</v>
@@ -15600,7 +15600,7 @@
         <v>0.8</v>
       </c>
       <c r="N166" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O166" s="4" t="b">
         <v>0</v>
@@ -15677,7 +15677,7 @@
         <v>0.8</v>
       </c>
       <c r="N167" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O167" s="4" t="b">
         <v>0</v>
@@ -15754,7 +15754,7 @@
         <v>0.8</v>
       </c>
       <c r="N168" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O168" s="4" t="b">
         <v>0</v>
@@ -15831,7 +15831,7 @@
         <v>0.8</v>
       </c>
       <c r="N169" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O169" s="4" t="b">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>0.8</v>
       </c>
       <c r="N170" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O170" s="4" t="b">
         <v>0</v>
@@ -15985,7 +15985,7 @@
         <v>0.8</v>
       </c>
       <c r="N171" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O171" s="4" t="b">
         <v>0</v>
@@ -16062,7 +16062,7 @@
         <v>0.8</v>
       </c>
       <c r="N172" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O172" s="4" t="b">
         <v>0</v>
@@ -16139,7 +16139,7 @@
         <v>0.8</v>
       </c>
       <c r="N173" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O173" s="4" t="b">
         <v>0</v>
@@ -16216,7 +16216,7 @@
         <v>0.8</v>
       </c>
       <c r="N174" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O174" s="4" t="b">
         <v>0</v>
@@ -16293,7 +16293,7 @@
         <v>0.8</v>
       </c>
       <c r="N175" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O175" s="4" t="b">
         <v>0</v>
@@ -16370,7 +16370,7 @@
         <v>0.8</v>
       </c>
       <c r="N176" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O176" s="4" t="b">
         <v>0</v>
@@ -16447,7 +16447,7 @@
         <v>0.8</v>
       </c>
       <c r="N177" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O177" s="4" t="b">
         <v>0</v>
@@ -16524,7 +16524,7 @@
         <v>0.8</v>
       </c>
       <c r="N178" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O178" s="4" t="b">
         <v>0</v>
@@ -16601,7 +16601,7 @@
         <v>0.8</v>
       </c>
       <c r="N179" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O179" s="4" t="b">
         <v>0</v>
@@ -16678,7 +16678,7 @@
         <v>0.8</v>
       </c>
       <c r="N180" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O180" s="4" t="b">
         <v>0</v>
@@ -16755,7 +16755,7 @@
         <v>0.8</v>
       </c>
       <c r="N181" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O181" s="4" t="b">
         <v>0</v>
@@ -16832,7 +16832,7 @@
         <v>0.8</v>
       </c>
       <c r="N182" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O182" s="4" t="b">
         <v>0</v>
@@ -16909,7 +16909,7 @@
         <v>0.8</v>
       </c>
       <c r="N183" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O183" s="4" t="b">
         <v>0</v>
@@ -16986,7 +16986,7 @@
         <v>0.8</v>
       </c>
       <c r="N184" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O184" s="4" t="b">
         <v>0</v>
@@ -17063,7 +17063,7 @@
         <v>0.8</v>
       </c>
       <c r="N185" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O185" s="4" t="b">
         <v>0</v>
@@ -17140,7 +17140,7 @@
         <v>0.8</v>
       </c>
       <c r="N186" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O186" s="4" t="b">
         <v>0</v>
@@ -17217,7 +17217,7 @@
         <v>0.8</v>
       </c>
       <c r="N187" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O187" s="4" t="b">
         <v>0</v>
@@ -17294,7 +17294,7 @@
         <v>0.8</v>
       </c>
       <c r="N188" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O188" s="4" t="b">
         <v>0</v>
@@ -17371,7 +17371,7 @@
         <v>0.8</v>
       </c>
       <c r="N189" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O189" s="4" t="b">
         <v>0</v>
@@ -17448,7 +17448,7 @@
         <v>0.8</v>
       </c>
       <c r="N190" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O190" s="4" t="b">
         <v>0</v>
@@ -17525,7 +17525,7 @@
         <v>0.8</v>
       </c>
       <c r="N191" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O191" s="4" t="b">
         <v>0</v>
@@ -17602,7 +17602,7 @@
         <v>0.8</v>
       </c>
       <c r="N192" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O192" s="4" t="b">
         <v>0</v>
@@ -17679,7 +17679,7 @@
         <v>0.8</v>
       </c>
       <c r="N193" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O193" s="4" t="b">
         <v>0</v>
@@ -17756,7 +17756,7 @@
         <v>0.8</v>
       </c>
       <c r="N194" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O194" s="4" t="b">
         <v>0</v>
@@ -17833,7 +17833,7 @@
         <v>0.8</v>
       </c>
       <c r="N195" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O195" s="4" t="b">
         <v>0</v>
@@ -17910,7 +17910,7 @@
         <v>0.8</v>
       </c>
       <c r="N196" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O196" s="4" t="b">
         <v>0</v>
@@ -17987,7 +17987,7 @@
         <v>0.8</v>
       </c>
       <c r="N197" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O197" s="4" t="b">
         <v>0</v>
@@ -18064,7 +18064,7 @@
         <v>0.8</v>
       </c>
       <c r="N198" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O198" s="4" t="b">
         <v>0</v>
@@ -18141,7 +18141,7 @@
         <v>0.8</v>
       </c>
       <c r="N199" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O199" s="4" t="b">
         <v>0</v>
@@ -18218,7 +18218,7 @@
         <v>0.8</v>
       </c>
       <c r="N200" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O200" s="4" t="b">
         <v>0</v>
@@ -18295,7 +18295,7 @@
         <v>0.8</v>
       </c>
       <c r="N201" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O201" s="4" t="b">
         <v>0</v>
@@ -18372,7 +18372,7 @@
         <v>0.8</v>
       </c>
       <c r="N202" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O202" s="4" t="b">
         <v>0</v>
@@ -18449,7 +18449,7 @@
         <v>0.8</v>
       </c>
       <c r="N203" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O203" s="4" t="b">
         <v>0</v>
@@ -18526,7 +18526,7 @@
         <v>0.8</v>
       </c>
       <c r="N204" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O204" s="4" t="b">
         <v>0</v>
@@ -18603,7 +18603,7 @@
         <v>0.8</v>
       </c>
       <c r="N205" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O205" s="4" t="b">
         <v>0</v>
@@ -18680,7 +18680,7 @@
         <v>0.8</v>
       </c>
       <c r="N206" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O206" s="4" t="b">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>0.8</v>
       </c>
       <c r="N207" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O207" s="4" t="b">
         <v>0</v>
@@ -18834,7 +18834,7 @@
         <v>0.8</v>
       </c>
       <c r="N208" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O208" s="4" t="b">
         <v>0</v>
@@ -18911,7 +18911,7 @@
         <v>0.8</v>
       </c>
       <c r="N209" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O209" s="4" t="b">
         <v>0</v>
@@ -18988,7 +18988,7 @@
         <v>0.8</v>
       </c>
       <c r="N210" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O210" s="4" t="b">
         <v>0</v>
@@ -19065,7 +19065,7 @@
         <v>0.8</v>
       </c>
       <c r="N211" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O211" s="4" t="b">
         <v>0</v>
@@ -19142,7 +19142,7 @@
         <v>0.8</v>
       </c>
       <c r="N212" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O212" s="4" t="b">
         <v>0</v>
@@ -19219,7 +19219,7 @@
         <v>0.8</v>
       </c>
       <c r="N213" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O213" s="4" t="b">
         <v>0</v>
@@ -19296,7 +19296,7 @@
         <v>0.8</v>
       </c>
       <c r="N214" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O214" s="4" t="b">
         <v>0</v>
@@ -19373,7 +19373,7 @@
         <v>0.8</v>
       </c>
       <c r="N215" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O215" s="4" t="b">
         <v>0</v>
@@ -19450,7 +19450,7 @@
         <v>0.8</v>
       </c>
       <c r="N216" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O216" s="4" t="b">
         <v>0</v>
@@ -19527,7 +19527,7 @@
         <v>0.8</v>
       </c>
       <c r="N217" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O217" s="4" t="b">
         <v>0</v>
@@ -19604,7 +19604,7 @@
         <v>0.8</v>
       </c>
       <c r="N218" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O218" s="4" t="b">
         <v>0</v>
@@ -19681,7 +19681,7 @@
         <v>0.8</v>
       </c>
       <c r="N219" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O219" s="4" t="b">
         <v>0</v>
@@ -19758,7 +19758,7 @@
         <v>0.8</v>
       </c>
       <c r="N220" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O220" s="4" t="b">
         <v>0</v>
@@ -19835,7 +19835,7 @@
         <v>0.8</v>
       </c>
       <c r="N221" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O221" s="4" t="b">
         <v>0</v>
@@ -19912,7 +19912,7 @@
         <v>0.8</v>
       </c>
       <c r="N222" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O222" s="4" t="b">
         <v>0</v>
@@ -19989,7 +19989,7 @@
         <v>0.8</v>
       </c>
       <c r="N223" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O223" s="4" t="b">
         <v>0</v>
@@ -20066,7 +20066,7 @@
         <v>0.8</v>
       </c>
       <c r="N224" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O224" s="4" t="b">
         <v>0</v>
@@ -20143,7 +20143,7 @@
         <v>0.8</v>
       </c>
       <c r="N225" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O225" s="4" t="b">
         <v>0</v>
@@ -20220,7 +20220,7 @@
         <v>0.8</v>
       </c>
       <c r="N226" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O226" s="4" t="b">
         <v>0</v>
@@ -20297,7 +20297,7 @@
         <v>0.8</v>
       </c>
       <c r="N227" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O227" s="4" t="b">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0.8</v>
       </c>
       <c r="N228" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O228" s="4" t="b">
         <v>0</v>
@@ -20451,7 +20451,7 @@
         <v>0.8</v>
       </c>
       <c r="N229" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O229" s="4" t="b">
         <v>0</v>
@@ -20528,7 +20528,7 @@
         <v>0.8</v>
       </c>
       <c r="N230" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O230" s="4" t="b">
         <v>0</v>
@@ -20605,7 +20605,7 @@
         <v>0.8</v>
       </c>
       <c r="N231" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O231" s="4" t="b">
         <v>0</v>
@@ -20682,7 +20682,7 @@
         <v>0.8</v>
       </c>
       <c r="N232" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O232" s="4" t="b">
         <v>0</v>
@@ -20759,7 +20759,7 @@
         <v>0.8</v>
       </c>
       <c r="N233" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O233" s="4" t="b">
         <v>0</v>
@@ -20836,7 +20836,7 @@
         <v>0.8</v>
       </c>
       <c r="N234" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O234" s="4" t="b">
         <v>0</v>
@@ -20913,7 +20913,7 @@
         <v>0.8</v>
       </c>
       <c r="N235" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O235" s="4" t="b">
         <v>0</v>
@@ -20990,7 +20990,7 @@
         <v>0.8</v>
       </c>
       <c r="N236" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O236" s="4" t="b">
         <v>0</v>
@@ -21067,7 +21067,7 @@
         <v>0.8</v>
       </c>
       <c r="N237" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O237" s="4" t="b">
         <v>0</v>
@@ -21144,7 +21144,7 @@
         <v>0.8</v>
       </c>
       <c r="N238" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O238" s="4" t="b">
         <v>0</v>
@@ -21221,7 +21221,7 @@
         <v>0.8</v>
       </c>
       <c r="N239" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O239" s="4" t="b">
         <v>0</v>
@@ -21298,7 +21298,7 @@
         <v>0.8</v>
       </c>
       <c r="N240" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O240" s="4" t="b">
         <v>0</v>
@@ -21375,7 +21375,7 @@
         <v>0.8</v>
       </c>
       <c r="N241" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O241" s="4" t="b">
         <v>0</v>
@@ -21452,7 +21452,7 @@
         <v>0.8</v>
       </c>
       <c r="N242" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O242" s="4" t="b">
         <v>0</v>
@@ -21529,7 +21529,7 @@
         <v>0.8</v>
       </c>
       <c r="N243" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O243" s="4" t="b">
         <v>0</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="N244" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O244" s="4" t="b">
         <v>0</v>
@@ -21683,7 +21683,7 @@
         <v>0.8</v>
       </c>
       <c r="N245" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O245" s="4" t="b">
         <v>0</v>
@@ -21760,7 +21760,7 @@
         <v>0.8</v>
       </c>
       <c r="N246" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O246" s="4" t="b">
         <v>0</v>
@@ -21837,7 +21837,7 @@
         <v>0.8</v>
       </c>
       <c r="N247" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O247" s="4" t="b">
         <v>0</v>
@@ -21914,7 +21914,7 @@
         <v>0.8</v>
       </c>
       <c r="N248" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O248" s="4" t="b">
         <v>0</v>
@@ -21991,7 +21991,7 @@
         <v>0.8</v>
       </c>
       <c r="N249" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O249" s="4" t="b">
         <v>0</v>
@@ -22068,7 +22068,7 @@
         <v>0.8</v>
       </c>
       <c r="N250" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O250" s="4" t="b">
         <v>0</v>
@@ -22145,7 +22145,7 @@
         <v>0.8</v>
       </c>
       <c r="N251" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O251" s="4" t="b">
         <v>0</v>
@@ -22222,7 +22222,7 @@
         <v>0.8</v>
       </c>
       <c r="N252" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O252" s="4" t="b">
         <v>0</v>
@@ -22299,7 +22299,7 @@
         <v>0.8</v>
       </c>
       <c r="N253" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O253" s="4" t="b">
         <v>0</v>
@@ -22376,7 +22376,7 @@
         <v>0.8</v>
       </c>
       <c r="N254" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O254" s="4" t="b">
         <v>0</v>
@@ -22453,7 +22453,7 @@
         <v>0.8</v>
       </c>
       <c r="N255" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O255" s="4" t="b">
         <v>0</v>
@@ -22530,7 +22530,7 @@
         <v>0.8</v>
       </c>
       <c r="N256" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O256" s="4" t="b">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0.8</v>
       </c>
       <c r="N257" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O257" s="4" t="b">
         <v>0</v>
@@ -22684,7 +22684,7 @@
         <v>0.8</v>
       </c>
       <c r="N258" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O258" s="4" t="b">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>0.8</v>
       </c>
       <c r="N259" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O259" s="4" t="b">
         <v>0</v>
@@ -22838,7 +22838,7 @@
         <v>0.8</v>
       </c>
       <c r="N260" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O260" s="4" t="b">
         <v>0</v>
@@ -22915,7 +22915,7 @@
         <v>0.8</v>
       </c>
       <c r="N261" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O261" s="4" t="b">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>0.8</v>
       </c>
       <c r="N262" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O262" s="4" t="b">
         <v>0</v>
@@ -23069,7 +23069,7 @@
         <v>0.8</v>
       </c>
       <c r="N263" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O263" s="4" t="b">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>0.8</v>
       </c>
       <c r="N264" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O264" s="4" t="b">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0.8</v>
       </c>
       <c r="N265" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O265" s="4" t="b">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0.8</v>
       </c>
       <c r="N266" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O266" s="4" t="b">
         <v>0</v>
@@ -23377,7 +23377,7 @@
         <v>0.8</v>
       </c>
       <c r="N267" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O267" s="4" t="b">
         <v>0</v>
@@ -23454,7 +23454,7 @@
         <v>0.8</v>
       </c>
       <c r="N268" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O268" s="4" t="b">
         <v>0</v>
@@ -23531,7 +23531,7 @@
         <v>0.8</v>
       </c>
       <c r="N269" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O269" s="4" t="b">
         <v>0</v>
@@ -23608,7 +23608,7 @@
         <v>0.8</v>
       </c>
       <c r="N270" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O270" s="4" t="b">
         <v>0</v>
@@ -23685,7 +23685,7 @@
         <v>0.8</v>
       </c>
       <c r="N271" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O271" s="4" t="b">
         <v>0</v>
@@ -23762,7 +23762,7 @@
         <v>0.8</v>
       </c>
       <c r="N272" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O272" s="4" t="b">
         <v>0</v>
@@ -23839,7 +23839,7 @@
         <v>0.8</v>
       </c>
       <c r="N273" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O273" s="4" t="b">
         <v>0</v>
@@ -23916,7 +23916,7 @@
         <v>0.8</v>
       </c>
       <c r="N274" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O274" s="4" t="b">
         <v>0</v>
@@ -23993,7 +23993,7 @@
         <v>0.8</v>
       </c>
       <c r="N275" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O275" s="4" t="b">
         <v>0</v>
@@ -24070,7 +24070,7 @@
         <v>0.8</v>
       </c>
       <c r="N276" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O276" s="4" t="b">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0.8</v>
       </c>
       <c r="N277" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O277" s="4" t="b">
         <v>0</v>
@@ -24224,7 +24224,7 @@
         <v>0.8</v>
       </c>
       <c r="N278" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O278" s="4" t="b">
         <v>0</v>
@@ -24301,7 +24301,7 @@
         <v>0.8</v>
       </c>
       <c r="N279" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O279" s="4" t="b">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0.8</v>
       </c>
       <c r="N280" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O280" s="4" t="b">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0.8</v>
       </c>
       <c r="N281" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O281" s="4" t="b">
         <v>0</v>
@@ -24532,7 +24532,7 @@
         <v>0.8</v>
       </c>
       <c r="N282" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O282" s="4" t="b">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0.8</v>
       </c>
       <c r="N283" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O283" s="4" t="b">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0.8</v>
       </c>
       <c r="N284" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O284" s="4" t="b">
         <v>0</v>
@@ -24763,7 +24763,7 @@
         <v>0.8</v>
       </c>
       <c r="N285" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O285" s="4" t="b">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0.8</v>
       </c>
       <c r="N286" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O286" s="4" t="b">
         <v>0</v>
@@ -24917,7 +24917,7 @@
         <v>0.8</v>
       </c>
       <c r="N287" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O287" s="4" t="b">
         <v>0</v>
@@ -24994,7 +24994,7 @@
         <v>0.8</v>
       </c>
       <c r="N288" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O288" s="4" t="b">
         <v>0</v>
@@ -25071,7 +25071,7 @@
         <v>0.8</v>
       </c>
       <c r="N289" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O289" s="4" t="b">
         <v>0</v>
@@ -25148,7 +25148,7 @@
         <v>0.8</v>
       </c>
       <c r="N290" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O290" s="4" t="b">
         <v>0</v>
@@ -25225,7 +25225,7 @@
         <v>0.8</v>
       </c>
       <c r="N291" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O291" s="4" t="b">
         <v>0</v>
@@ -25302,7 +25302,7 @@
         <v>0.8</v>
       </c>
       <c r="N292" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O292" s="4" t="b">
         <v>0</v>
@@ -25379,7 +25379,7 @@
         <v>0.8</v>
       </c>
       <c r="N293" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O293" s="4" t="b">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0.8</v>
       </c>
       <c r="N294" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O294" s="4" t="b">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>0.8</v>
       </c>
       <c r="N295" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O295" s="4" t="b">
         <v>0</v>
@@ -25610,7 +25610,7 @@
         <v>0.8</v>
       </c>
       <c r="N296" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O296" s="4" t="b">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0.8</v>
       </c>
       <c r="N297" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O297" s="4" t="b">
         <v>0</v>
@@ -25764,7 +25764,7 @@
         <v>0.8</v>
       </c>
       <c r="N298" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O298" s="4" t="b">
         <v>0</v>
@@ -25841,7 +25841,7 @@
         <v>0.8</v>
       </c>
       <c r="N299" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O299" s="4" t="b">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0.8</v>
       </c>
       <c r="N300" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O300" s="4" t="b">
         <v>0</v>
@@ -25995,7 +25995,7 @@
         <v>0.8</v>
       </c>
       <c r="N301" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O301" s="4" t="b">
         <v>0</v>
@@ -26072,7 +26072,7 @@
         <v>0.8</v>
       </c>
       <c r="N302" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O302" s="4" t="b">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>0.8</v>
       </c>
       <c r="N303" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O303" s="4" t="b">
         <v>0</v>
@@ -26226,7 +26226,7 @@
         <v>0.8</v>
       </c>
       <c r="N304" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O304" s="4" t="b">
         <v>0</v>
@@ -26303,7 +26303,7 @@
         <v>0.8</v>
       </c>
       <c r="N305" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O305" s="4" t="b">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0.8</v>
       </c>
       <c r="N306" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O306" s="4" t="b">
         <v>0</v>
@@ -26457,7 +26457,7 @@
         <v>0.8</v>
       </c>
       <c r="N307" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O307" s="4" t="b">
         <v>0</v>
@@ -26534,7 +26534,7 @@
         <v>0.8</v>
       </c>
       <c r="N308" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O308" s="4" t="b">
         <v>0</v>
@@ -26611,7 +26611,7 @@
         <v>0.8</v>
       </c>
       <c r="N309" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O309" s="4" t="b">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>0.8</v>
       </c>
       <c r="N310" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O310" s="4" t="b">
         <v>0</v>
@@ -26765,7 +26765,7 @@
         <v>0.8</v>
       </c>
       <c r="N311" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O311" s="4" t="b">
         <v>0</v>
@@ -26842,7 +26842,7 @@
         <v>0.8</v>
       </c>
       <c r="N312" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O312" s="4" t="b">
         <v>0</v>
@@ -26919,7 +26919,7 @@
         <v>0.8</v>
       </c>
       <c r="N313" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O313" s="4" t="b">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0.8</v>
       </c>
       <c r="N314" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O314" s="4" t="b">
         <v>0</v>
@@ -27073,7 +27073,7 @@
         <v>0.8</v>
       </c>
       <c r="N315" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O315" s="4" t="b">
         <v>0</v>
@@ -27150,7 +27150,7 @@
         <v>0.8</v>
       </c>
       <c r="N316" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O316" s="4" t="b">
         <v>0</v>
@@ -27227,7 +27227,7 @@
         <v>0.8</v>
       </c>
       <c r="N317" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O317" s="4" t="b">
         <v>0</v>
@@ -27304,7 +27304,7 @@
         <v>0.8</v>
       </c>
       <c r="N318" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O318" s="4" t="b">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0.8</v>
       </c>
       <c r="N319" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O319" s="4" t="b">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0.8</v>
       </c>
       <c r="N320" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O320" s="4" t="b">
         <v>0</v>
@@ -27535,7 +27535,7 @@
         <v>0.8</v>
       </c>
       <c r="N321" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O321" s="4" t="b">
         <v>0</v>
@@ -27612,7 +27612,7 @@
         <v>0.8</v>
       </c>
       <c r="N322" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O322" s="4" t="b">
         <v>0</v>
@@ -27689,7 +27689,7 @@
         <v>0.8</v>
       </c>
       <c r="N323" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O323" s="4" t="b">
         <v>0</v>
@@ -27766,7 +27766,7 @@
         <v>0.8</v>
       </c>
       <c r="N324" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O324" s="4" t="b">
         <v>0</v>
@@ -27843,7 +27843,7 @@
         <v>0.8</v>
       </c>
       <c r="N325" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O325" s="4" t="b">
         <v>0</v>
@@ -27920,7 +27920,7 @@
         <v>0.8</v>
       </c>
       <c r="N326" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O326" s="4" t="b">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>0.8</v>
       </c>
       <c r="N327" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O327" s="4" t="b">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0.8</v>
       </c>
       <c r="N328" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O328" s="4" t="b">
         <v>0</v>
@@ -28151,7 +28151,7 @@
         <v>0.8</v>
       </c>
       <c r="N329" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O329" s="4" t="b">
         <v>0</v>
@@ -28228,7 +28228,7 @@
         <v>0.8</v>
       </c>
       <c r="N330" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O330" s="4" t="b">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0.8</v>
       </c>
       <c r="N331" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O331" s="4" t="b">
         <v>0</v>
@@ -28382,7 +28382,7 @@
         <v>0.8</v>
       </c>
       <c r="N332" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O332" s="4" t="b">
         <v>0</v>
@@ -28459,7 +28459,7 @@
         <v>0.8</v>
       </c>
       <c r="N333" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O333" s="4" t="b">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0.8</v>
       </c>
       <c r="N334" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O334" s="4" t="b">
         <v>0</v>
@@ -28613,7 +28613,7 @@
         <v>0.8</v>
       </c>
       <c r="N335" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O335" s="4" t="b">
         <v>0</v>
@@ -28690,7 +28690,7 @@
         <v>0.8</v>
       </c>
       <c r="N336" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O336" s="4" t="b">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0.8</v>
       </c>
       <c r="N337" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O337" s="4" t="b">
         <v>0</v>
@@ -28844,7 +28844,7 @@
         <v>0.8</v>
       </c>
       <c r="N338" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O338" s="4" t="b">
         <v>0</v>
@@ -28921,7 +28921,7 @@
         <v>0.8</v>
       </c>
       <c r="N339" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O339" s="4" t="b">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0.8</v>
       </c>
       <c r="N340" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O340" s="4" t="b">
         <v>0</v>
@@ -29075,7 +29075,7 @@
         <v>0.8</v>
       </c>
       <c r="N341" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O341" s="4" t="b">
         <v>0</v>
@@ -29152,7 +29152,7 @@
         <v>0.8</v>
       </c>
       <c r="N342" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O342" s="4" t="b">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0.8</v>
       </c>
       <c r="N343" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O343" s="4" t="b">
         <v>0</v>
@@ -29306,7 +29306,7 @@
         <v>0.8</v>
       </c>
       <c r="N344" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O344" s="4" t="b">
         <v>0</v>
@@ -29383,7 +29383,7 @@
         <v>0.8</v>
       </c>
       <c r="N345" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O345" s="4" t="b">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0.8</v>
       </c>
       <c r="N346" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O346" s="4" t="b">
         <v>0</v>
@@ -29537,7 +29537,7 @@
         <v>0.8</v>
       </c>
       <c r="N347" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O347" s="4" t="b">
         <v>0</v>
@@ -29614,7 +29614,7 @@
         <v>0.8</v>
       </c>
       <c r="N348" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O348" s="4" t="b">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0.8</v>
       </c>
       <c r="N349" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O349" s="4" t="b">
         <v>0</v>
@@ -29768,7 +29768,7 @@
         <v>0.8</v>
       </c>
       <c r="N350" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O350" s="4" t="b">
         <v>0</v>
@@ -29845,7 +29845,7 @@
         <v>0.8</v>
       </c>
       <c r="N351" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O351" s="4" t="b">
         <v>0</v>
@@ -29922,7 +29922,7 @@
         <v>0.8</v>
       </c>
       <c r="N352" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O352" s="4" t="b">
         <v>0</v>
@@ -29999,7 +29999,7 @@
         <v>0.8</v>
       </c>
       <c r="N353" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O353" s="4" t="b">
         <v>0</v>
@@ -30076,7 +30076,7 @@
         <v>0.8</v>
       </c>
       <c r="N354" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O354" s="4" t="b">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>0.8</v>
       </c>
       <c r="N355" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O355" s="4" t="b">
         <v>0</v>
@@ -30230,7 +30230,7 @@
         <v>0.8</v>
       </c>
       <c r="N356" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O356" s="4" t="b">
         <v>0</v>
@@ -30307,7 +30307,7 @@
         <v>0.8</v>
       </c>
       <c r="N357" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O357" s="4" t="b">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>0.8</v>
       </c>
       <c r="N358" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O358" s="4" t="b">
         <v>0</v>
@@ -30461,7 +30461,7 @@
         <v>0.8</v>
       </c>
       <c r="N359" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O359" s="4" t="b">
         <v>0</v>
@@ -30538,7 +30538,7 @@
         <v>0.8</v>
       </c>
       <c r="N360" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O360" s="4" t="b">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         <v>0.8</v>
       </c>
       <c r="N361" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O361" s="4" t="b">
         <v>0</v>
@@ -30692,7 +30692,7 @@
         <v>0.8</v>
       </c>
       <c r="N362" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O362" s="4" t="b">
         <v>0</v>
@@ -30769,7 +30769,7 @@
         <v>0.8</v>
       </c>
       <c r="N363" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O363" s="4" t="b">
         <v>0</v>
@@ -30846,7 +30846,7 @@
         <v>0.8</v>
       </c>
       <c r="N364" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O364" s="4" t="b">
         <v>0</v>
@@ -30923,7 +30923,7 @@
         <v>0.8</v>
       </c>
       <c r="N365" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O365" s="4" t="b">
         <v>0</v>
@@ -31000,7 +31000,7 @@
         <v>0.8</v>
       </c>
       <c r="N366" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O366" s="4" t="b">
         <v>0</v>
@@ -31077,7 +31077,7 @@
         <v>0.8</v>
       </c>
       <c r="N367" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O367" s="4" t="b">
         <v>0</v>
@@ -31154,7 +31154,7 @@
         <v>0.8</v>
       </c>
       <c r="N368" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O368" s="4" t="b">
         <v>0</v>
@@ -31231,7 +31231,7 @@
         <v>0.8</v>
       </c>
       <c r="N369" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O369" s="4" t="b">
         <v>0</v>
@@ -31308,7 +31308,7 @@
         <v>0.8</v>
       </c>
       <c r="N370" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O370" s="4" t="b">
         <v>0</v>
@@ -31385,7 +31385,7 @@
         <v>0.8</v>
       </c>
       <c r="N371" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O371" s="4" t="b">
         <v>0</v>
@@ -31462,7 +31462,7 @@
         <v>0.8</v>
       </c>
       <c r="N372" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O372" s="4" t="b">
         <v>0</v>
@@ -31539,7 +31539,7 @@
         <v>0.8</v>
       </c>
       <c r="N373" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O373" s="4" t="b">
         <v>0</v>
@@ -31616,7 +31616,7 @@
         <v>0.8</v>
       </c>
       <c r="N374" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O374" s="4" t="b">
         <v>0</v>
@@ -31693,7 +31693,7 @@
         <v>0.8</v>
       </c>
       <c r="N375" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O375" s="4" t="b">
         <v>0</v>
@@ -31770,7 +31770,7 @@
         <v>0.8</v>
       </c>
       <c r="N376" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O376" s="4" t="b">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>0.8</v>
       </c>
       <c r="N377" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O377" s="4" t="b">
         <v>0</v>
@@ -31924,7 +31924,7 @@
         <v>0.8</v>
       </c>
       <c r="N378" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O378" s="4" t="b">
         <v>0</v>
@@ -32001,7 +32001,7 @@
         <v>0.8</v>
       </c>
       <c r="N379" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O379" s="4" t="b">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>0.8</v>
       </c>
       <c r="N380" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O380" s="4" t="b">
         <v>0</v>
@@ -32155,7 +32155,7 @@
         <v>0.8</v>
       </c>
       <c r="N381" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O381" s="4" t="b">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>0.8</v>
       </c>
       <c r="N382" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O382" s="4" t="b">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>0.8</v>
       </c>
       <c r="N383" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O383" s="4" t="b">
         <v>0</v>
@@ -32386,7 +32386,7 @@
         <v>0.8</v>
       </c>
       <c r="N384" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O384" s="4" t="b">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0.8</v>
       </c>
       <c r="N385" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O385" s="4" t="b">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>0.8</v>
       </c>
       <c r="N386" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O386" s="4" t="b">
         <v>0</v>
@@ -32617,7 +32617,7 @@
         <v>0.8</v>
       </c>
       <c r="N387" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O387" s="4" t="b">
         <v>0</v>
@@ -32694,7 +32694,7 @@
         <v>0.8</v>
       </c>
       <c r="N388" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O388" s="4" t="b">
         <v>0</v>
@@ -32771,7 +32771,7 @@
         <v>0.8</v>
       </c>
       <c r="N389" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O389" s="4" t="b">
         <v>0</v>
@@ -32848,7 +32848,7 @@
         <v>0.8</v>
       </c>
       <c r="N390" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O390" s="4" t="b">
         <v>0</v>
@@ -32925,7 +32925,7 @@
         <v>0.8</v>
       </c>
       <c r="N391" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O391" s="4" t="b">
         <v>0</v>
@@ -33002,7 +33002,7 @@
         <v>0.8</v>
       </c>
       <c r="N392" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O392" s="4" t="b">
         <v>0</v>
@@ -33079,7 +33079,7 @@
         <v>0.8</v>
       </c>
       <c r="N393" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O393" s="4" t="b">
         <v>0</v>
@@ -33156,7 +33156,7 @@
         <v>0.8</v>
       </c>
       <c r="N394" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O394" s="4" t="b">
         <v>0</v>
@@ -33233,7 +33233,7 @@
         <v>0.8</v>
       </c>
       <c r="N395" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O395" s="4" t="b">
         <v>0</v>
@@ -33310,7 +33310,7 @@
         <v>0.8</v>
       </c>
       <c r="N396" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O396" s="4" t="b">
         <v>0</v>
@@ -33387,7 +33387,7 @@
         <v>0.8</v>
       </c>
       <c r="N397" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O397" s="4" t="b">
         <v>0</v>
@@ -33464,7 +33464,7 @@
         <v>0.8</v>
       </c>
       <c r="N398" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O398" s="4" t="b">
         <v>0</v>
@@ -33541,7 +33541,7 @@
         <v>0.8</v>
       </c>
       <c r="N399" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O399" s="4" t="b">
         <v>0</v>
@@ -33618,7 +33618,7 @@
         <v>0.8</v>
       </c>
       <c r="N400" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O400" s="4" t="b">
         <v>0</v>
@@ -33695,7 +33695,7 @@
         <v>0.8</v>
       </c>
       <c r="N401" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O401" s="4" t="b">
         <v>0</v>
@@ -33772,7 +33772,7 @@
         <v>0.8</v>
       </c>
       <c r="N402" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O402" s="4" t="b">
         <v>0</v>
@@ -33849,7 +33849,7 @@
         <v>0.8</v>
       </c>
       <c r="N403" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O403" s="4" t="b">
         <v>0</v>
@@ -33926,7 +33926,7 @@
         <v>0.8</v>
       </c>
       <c r="N404" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O404" s="4" t="b">
         <v>0</v>
@@ -34003,7 +34003,7 @@
         <v>0.8</v>
       </c>
       <c r="N405" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O405" s="4" t="b">
         <v>0</v>
@@ -34080,7 +34080,7 @@
         <v>0.8</v>
       </c>
       <c r="N406" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O406" s="4" t="b">
         <v>0</v>
@@ -34157,7 +34157,7 @@
         <v>0.8</v>
       </c>
       <c r="N407" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O407" s="4" t="b">
         <v>0</v>
@@ -34234,7 +34234,7 @@
         <v>0.8</v>
       </c>
       <c r="N408" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O408" s="4" t="b">
         <v>0</v>
@@ -34311,7 +34311,7 @@
         <v>0.8</v>
       </c>
       <c r="N409" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O409" s="4" t="b">
         <v>0</v>
@@ -34388,7 +34388,7 @@
         <v>0.8</v>
       </c>
       <c r="N410" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O410" s="4" t="b">
         <v>0</v>
@@ -34465,7 +34465,7 @@
         <v>0.8</v>
       </c>
       <c r="N411" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O411" s="4" t="b">
         <v>0</v>
@@ -34542,7 +34542,7 @@
         <v>0.8</v>
       </c>
       <c r="N412" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O412" s="4" t="b">
         <v>0</v>
@@ -34619,7 +34619,7 @@
         <v>0.8</v>
       </c>
       <c r="N413" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O413" s="4" t="b">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0.8</v>
       </c>
       <c r="N414" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O414" s="4" t="b">
         <v>0</v>
@@ -34773,7 +34773,7 @@
         <v>0.8</v>
       </c>
       <c r="N415" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O415" s="4" t="b">
         <v>0</v>
@@ -34850,7 +34850,7 @@
         <v>0.8</v>
       </c>
       <c r="N416" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O416" s="4" t="b">
         <v>0</v>
@@ -34927,7 +34927,7 @@
         <v>0.8</v>
       </c>
       <c r="N417" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O417" s="4" t="b">
         <v>0</v>
@@ -35004,7 +35004,7 @@
         <v>0.8</v>
       </c>
       <c r="N418" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O418" s="4" t="b">
         <v>0</v>
@@ -35081,7 +35081,7 @@
         <v>0.8</v>
       </c>
       <c r="N419" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O419" s="4" t="b">
         <v>0</v>
@@ -35158,7 +35158,7 @@
         <v>0.8</v>
       </c>
       <c r="N420" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O420" s="4" t="b">
         <v>0</v>
@@ -35235,7 +35235,7 @@
         <v>0.8</v>
       </c>
       <c r="N421" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O421" s="4" t="b">
         <v>0</v>
@@ -35312,7 +35312,7 @@
         <v>0.8</v>
       </c>
       <c r="N422" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O422" s="4" t="b">
         <v>0</v>
@@ -35389,7 +35389,7 @@
         <v>0.8</v>
       </c>
       <c r="N423" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O423" s="4" t="b">
         <v>0</v>
@@ -35466,7 +35466,7 @@
         <v>0.8</v>
       </c>
       <c r="N424" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O424" s="4" t="b">
         <v>0</v>
@@ -35543,7 +35543,7 @@
         <v>0.8</v>
       </c>
       <c r="N425" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O425" s="4" t="b">
         <v>0</v>
@@ -35620,7 +35620,7 @@
         <v>0.8</v>
       </c>
       <c r="N426" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O426" s="4" t="b">
         <v>0</v>
@@ -35697,7 +35697,7 @@
         <v>0.8</v>
       </c>
       <c r="N427" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O427" s="4" t="b">
         <v>0</v>
@@ -35774,7 +35774,7 @@
         <v>0.8</v>
       </c>
       <c r="N428" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O428" s="4" t="b">
         <v>0</v>
@@ -35851,7 +35851,7 @@
         <v>0.8</v>
       </c>
       <c r="N429" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O429" s="4" t="b">
         <v>0</v>
@@ -35928,7 +35928,7 @@
         <v>0.8</v>
       </c>
       <c r="N430" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O430" s="4" t="b">
         <v>0</v>
@@ -36005,7 +36005,7 @@
         <v>0.8</v>
       </c>
       <c r="N431" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O431" s="4" t="b">
         <v>0</v>
@@ -36082,7 +36082,7 @@
         <v>0.8</v>
       </c>
       <c r="N432" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O432" s="4" t="b">
         <v>0</v>
@@ -36159,7 +36159,7 @@
         <v>0.8</v>
       </c>
       <c r="N433" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O433" s="4" t="b">
         <v>0</v>
@@ -36236,7 +36236,7 @@
         <v>0.8</v>
       </c>
       <c r="N434" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O434" s="4" t="b">
         <v>0</v>
@@ -36313,7 +36313,7 @@
         <v>0.8</v>
       </c>
       <c r="N435" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O435" s="4" t="b">
         <v>0</v>
@@ -36390,7 +36390,7 @@
         <v>0.8</v>
       </c>
       <c r="N436" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O436" s="4" t="b">
         <v>0</v>
@@ -36467,7 +36467,7 @@
         <v>0.8</v>
       </c>
       <c r="N437" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O437" s="4" t="b">
         <v>0</v>
@@ -36544,7 +36544,7 @@
         <v>0.8</v>
       </c>
       <c r="N438" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O438" s="4" t="b">
         <v>0</v>
@@ -36621,7 +36621,7 @@
         <v>0.8</v>
       </c>
       <c r="N439" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O439" s="4" t="b">
         <v>0</v>
@@ -36698,7 +36698,7 @@
         <v>0.8</v>
       </c>
       <c r="N440" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O440" s="4" t="b">
         <v>0</v>
@@ -36775,7 +36775,7 @@
         <v>0.8</v>
       </c>
       <c r="N441" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O441" s="4" t="b">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>0.8</v>
       </c>
       <c r="N442" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O442" s="4" t="b">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0.8</v>
       </c>
       <c r="N443" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O443" s="4" t="b">
         <v>0</v>
@@ -37006,7 +37006,7 @@
         <v>0.8</v>
       </c>
       <c r="N444" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O444" s="4" t="b">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>0.8</v>
       </c>
       <c r="N445" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O445" s="4" t="b">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0.8</v>
       </c>
       <c r="N446" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O446" s="4" t="b">
         <v>0</v>
@@ -37237,7 +37237,7 @@
         <v>0.8</v>
       </c>
       <c r="N447" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O447" s="4" t="b">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>0.8</v>
       </c>
       <c r="N448" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O448" s="4" t="b">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>0.8</v>
       </c>
       <c r="N449" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O449" s="4" t="b">
         <v>0</v>
@@ -37468,7 +37468,7 @@
         <v>0.8</v>
       </c>
       <c r="N450" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O450" s="4" t="b">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0.8</v>
       </c>
       <c r="N451" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O451" s="4" t="b">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0.8</v>
       </c>
       <c r="N452" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O452" s="4" t="b">
         <v>0</v>
@@ -37699,7 +37699,7 @@
         <v>0.8</v>
       </c>
       <c r="N453" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O453" s="4" t="b">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0.8</v>
       </c>
       <c r="N454" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O454" s="4" t="b">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0.8</v>
       </c>
       <c r="N455" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O455" s="4" t="b">
         <v>0</v>
@@ -37930,7 +37930,7 @@
         <v>0.8</v>
       </c>
       <c r="N456" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O456" s="4" t="b">
         <v>0</v>
@@ -38007,7 +38007,7 @@
         <v>0.8</v>
       </c>
       <c r="N457" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O457" s="4" t="b">
         <v>0</v>
@@ -38084,7 +38084,7 @@
         <v>0.8</v>
       </c>
       <c r="N458" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O458" s="4" t="b">
         <v>0</v>
@@ -38161,7 +38161,7 @@
         <v>0.8</v>
       </c>
       <c r="N459" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O459" s="4" t="b">
         <v>0</v>
@@ -38238,7 +38238,7 @@
         <v>0.8</v>
       </c>
       <c r="N460" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O460" s="4" t="b">
         <v>0</v>
@@ -38315,7 +38315,7 @@
         <v>0.8</v>
       </c>
       <c r="N461" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O461" s="4" t="b">
         <v>0</v>
@@ -38392,7 +38392,7 @@
         <v>0.8</v>
       </c>
       <c r="N462" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O462" s="4" t="b">
         <v>0</v>
@@ -38469,7 +38469,7 @@
         <v>0.8</v>
       </c>
       <c r="N463" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O463" s="4" t="b">
         <v>0</v>
@@ -38546,7 +38546,7 @@
         <v>0.8</v>
       </c>
       <c r="N464" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O464" s="4" t="b">
         <v>0</v>
@@ -38623,7 +38623,7 @@
         <v>0.8</v>
       </c>
       <c r="N465" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O465" s="4" t="b">
         <v>0</v>
@@ -38700,7 +38700,7 @@
         <v>0.8</v>
       </c>
       <c r="N466" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O466" s="4" t="b">
         <v>0</v>
@@ -38777,7 +38777,7 @@
         <v>0.8</v>
       </c>
       <c r="N467" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O467" s="4" t="b">
         <v>0</v>
@@ -38854,7 +38854,7 @@
         <v>0.8</v>
       </c>
       <c r="N468" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O468" s="4" t="b">
         <v>0</v>
@@ -38931,7 +38931,7 @@
         <v>0.8</v>
       </c>
       <c r="N469" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O469" s="4" t="b">
         <v>0</v>
@@ -39008,7 +39008,7 @@
         <v>0.8</v>
       </c>
       <c r="N470" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O470" s="4" t="b">
         <v>0</v>
@@ -39085,7 +39085,7 @@
         <v>0.8</v>
       </c>
       <c r="N471" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O471" s="4" t="b">
         <v>0</v>
@@ -39162,7 +39162,7 @@
         <v>0.8</v>
       </c>
       <c r="N472" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O472" s="4" t="b">
         <v>0</v>
@@ -39239,7 +39239,7 @@
         <v>0.8</v>
       </c>
       <c r="N473" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O473" s="4" t="b">
         <v>0</v>
@@ -39316,7 +39316,7 @@
         <v>0.8</v>
       </c>
       <c r="N474" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O474" s="4" t="b">
         <v>0</v>
@@ -39393,7 +39393,7 @@
         <v>0.8</v>
       </c>
       <c r="N475" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O475" s="4" t="b">
         <v>0</v>
@@ -39470,7 +39470,7 @@
         <v>0.8</v>
       </c>
       <c r="N476" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O476" s="4" t="b">
         <v>0</v>
@@ -39547,7 +39547,7 @@
         <v>0.8</v>
       </c>
       <c r="N477" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O477" s="4" t="b">
         <v>0</v>
@@ -39624,7 +39624,7 @@
         <v>0.8</v>
       </c>
       <c r="N478" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O478" s="4" t="b">
         <v>0</v>
@@ -39701,7 +39701,7 @@
         <v>0.8</v>
       </c>
       <c r="N479" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O479" s="4" t="b">
         <v>0</v>
@@ -39778,7 +39778,7 @@
         <v>0.8</v>
       </c>
       <c r="N480" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O480" s="4" t="b">
         <v>0</v>
@@ -39855,7 +39855,7 @@
         <v>0.8</v>
       </c>
       <c r="N481" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O481" s="4" t="b">
         <v>0</v>
@@ -39932,7 +39932,7 @@
         <v>0.8</v>
       </c>
       <c r="N482" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O482" s="4" t="b">
         <v>0</v>
@@ -40009,7 +40009,7 @@
         <v>0.8</v>
       </c>
       <c r="N483" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O483" s="4" t="b">
         <v>0</v>
@@ -40086,7 +40086,7 @@
         <v>0.8</v>
       </c>
       <c r="N484" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O484" s="4" t="b">
         <v>0</v>
@@ -40163,7 +40163,7 @@
         <v>0.8</v>
       </c>
       <c r="N485" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O485" s="4" t="b">
         <v>0</v>
@@ -40240,7 +40240,7 @@
         <v>0.8</v>
       </c>
       <c r="N486" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O486" s="4" t="b">
         <v>0</v>
@@ -40317,7 +40317,7 @@
         <v>0.8</v>
       </c>
       <c r="N487" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O487" s="4" t="b">
         <v>0</v>
@@ -40394,7 +40394,7 @@
         <v>0.8</v>
       </c>
       <c r="N488" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O488" s="4" t="b">
         <v>0</v>
@@ -40471,7 +40471,7 @@
         <v>0.8</v>
       </c>
       <c r="N489" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O489" s="4" t="b">
         <v>0</v>
@@ -40548,7 +40548,7 @@
         <v>0.8</v>
       </c>
       <c r="N490" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O490" s="4" t="b">
         <v>0</v>
@@ -40625,7 +40625,7 @@
         <v>0.8</v>
       </c>
       <c r="N491" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O491" s="4" t="b">
         <v>0</v>
@@ -40702,7 +40702,7 @@
         <v>0.8</v>
       </c>
       <c r="N492" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O492" s="4" t="b">
         <v>0</v>
@@ -40779,7 +40779,7 @@
         <v>0.8</v>
       </c>
       <c r="N493" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O493" s="4" t="b">
         <v>0</v>
@@ -40856,7 +40856,7 @@
         <v>0.8</v>
       </c>
       <c r="N494" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O494" s="4" t="b">
         <v>0</v>
@@ -40933,7 +40933,7 @@
         <v>0.8</v>
       </c>
       <c r="N495" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O495" s="4" t="b">
         <v>0</v>
@@ -41010,7 +41010,7 @@
         <v>0.8</v>
       </c>
       <c r="N496" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O496" s="4" t="b">
         <v>0</v>
@@ -41087,7 +41087,7 @@
         <v>0.8</v>
       </c>
       <c r="N497" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O497" s="4" t="b">
         <v>0</v>
@@ -41164,7 +41164,7 @@
         <v>0.8</v>
       </c>
       <c r="N498" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O498" s="4" t="b">
         <v>0</v>
@@ -41241,7 +41241,7 @@
         <v>0.8</v>
       </c>
       <c r="N499" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O499" s="4" t="b">
         <v>0</v>
@@ -41318,7 +41318,7 @@
         <v>0.8</v>
       </c>
       <c r="N500" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O500" s="4" t="b">
         <v>0</v>
@@ -41395,7 +41395,7 @@
         <v>0.8</v>
       </c>
       <c r="N501" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O501" s="4" t="b">
         <v>0</v>
@@ -41472,7 +41472,7 @@
         <v>0.8</v>
       </c>
       <c r="N502" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O502" s="4" t="b">
         <v>0</v>
@@ -41549,7 +41549,7 @@
         <v>0.8</v>
       </c>
       <c r="N503" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O503" s="4" t="b">
         <v>0</v>
@@ -41626,7 +41626,7 @@
         <v>0.8</v>
       </c>
       <c r="N504" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O504" s="4" t="b">
         <v>0</v>
@@ -41703,7 +41703,7 @@
         <v>0.8</v>
       </c>
       <c r="N505" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O505" s="4" t="b">
         <v>0</v>
@@ -41780,7 +41780,7 @@
         <v>0.8</v>
       </c>
       <c r="N506" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O506" s="4" t="b">
         <v>0</v>
@@ -41857,7 +41857,7 @@
         <v>0.8</v>
       </c>
       <c r="N507" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O507" s="4" t="b">
         <v>0</v>
@@ -41934,7 +41934,7 @@
         <v>0.8</v>
       </c>
       <c r="N508" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O508" s="4" t="b">
         <v>0</v>
@@ -42011,7 +42011,7 @@
         <v>0.8</v>
       </c>
       <c r="N509" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O509" s="4" t="b">
         <v>0</v>
@@ -42088,7 +42088,7 @@
         <v>0.8</v>
       </c>
       <c r="N510" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O510" s="4" t="b">
         <v>0</v>
@@ -42165,7 +42165,7 @@
         <v>0.8</v>
       </c>
       <c r="N511" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O511" s="4" t="b">
         <v>0</v>
@@ -42242,7 +42242,7 @@
         <v>0.8</v>
       </c>
       <c r="N512" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O512" s="4" t="b">
         <v>0</v>
@@ -42319,7 +42319,7 @@
         <v>0.8</v>
       </c>
       <c r="N513" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O513" s="4" t="b">
         <v>0</v>
@@ -42396,7 +42396,7 @@
         <v>0.8</v>
       </c>
       <c r="N514" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O514" s="4" t="b">
         <v>0</v>
@@ -42473,7 +42473,7 @@
         <v>0.8</v>
       </c>
       <c r="N515" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O515" s="4" t="b">
         <v>0</v>
@@ -42550,7 +42550,7 @@
         <v>0.8</v>
       </c>
       <c r="N516" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O516" s="4" t="b">
         <v>0</v>
@@ -42627,7 +42627,7 @@
         <v>0.8</v>
       </c>
       <c r="N517" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O517" s="4" t="b">
         <v>0</v>
@@ -42704,7 +42704,7 @@
         <v>0.8</v>
       </c>
       <c r="N518" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O518" s="4" t="b">
         <v>0</v>
@@ -42781,7 +42781,7 @@
         <v>0.8</v>
       </c>
       <c r="N519" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O519" s="4" t="b">
         <v>0</v>
@@ -42858,7 +42858,7 @@
         <v>0.8</v>
       </c>
       <c r="N520" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O520" s="4" t="b">
         <v>0</v>
@@ -42935,7 +42935,7 @@
         <v>0.8</v>
       </c>
       <c r="N521" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O521" s="4" t="b">
         <v>0</v>
@@ -43012,7 +43012,7 @@
         <v>0.8</v>
       </c>
       <c r="N522" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O522" s="4" t="b">
         <v>0</v>
@@ -43089,7 +43089,7 @@
         <v>0.8</v>
       </c>
       <c r="N523" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O523" s="4" t="b">
         <v>0</v>
@@ -43166,7 +43166,7 @@
         <v>0.8</v>
       </c>
       <c r="N524" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O524" s="4" t="b">
         <v>0</v>
@@ -43243,7 +43243,7 @@
         <v>0.8</v>
       </c>
       <c r="N525" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O525" s="4" t="b">
         <v>0</v>
@@ -43320,7 +43320,7 @@
         <v>0.8</v>
       </c>
       <c r="N526" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O526" s="4" t="b">
         <v>0</v>
@@ -43397,7 +43397,7 @@
         <v>0.8</v>
       </c>
       <c r="N527" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O527" s="4" t="b">
         <v>0</v>
@@ -43474,7 +43474,7 @@
         <v>0.8</v>
       </c>
       <c r="N528" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O528" s="4" t="b">
         <v>0</v>
@@ -43551,7 +43551,7 @@
         <v>0.8</v>
       </c>
       <c r="N529" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O529" s="4" t="b">
         <v>0</v>
@@ -43628,7 +43628,7 @@
         <v>0.8</v>
       </c>
       <c r="N530" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O530" s="4" t="b">
         <v>0</v>
@@ -43705,7 +43705,7 @@
         <v>0.8</v>
       </c>
       <c r="N531" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O531" s="4" t="b">
         <v>0</v>
@@ -43782,7 +43782,7 @@
         <v>0.8</v>
       </c>
       <c r="N532" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O532" s="4" t="b">
         <v>0</v>
@@ -43859,7 +43859,7 @@
         <v>0.8</v>
       </c>
       <c r="N533" s="4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O533" s="4" t="b">
         <v>0</v>
